--- a/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F4B672-6E94-4B09-9F1C-520BC26C1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{512DD48E-15B4-4A5F-B638-D9B69509F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F32AC8B-A84B-4E45-99F4-C4EFA48754C9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{01B64B5D-3131-4395-A764-8F66CE93AD98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,27 +71,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
     <t>20,54%</t>
   </si>
   <si>
@@ -119,33 +287,6 @@
     <t>24,51%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
     <t>48,3%</t>
   </si>
   <si>
@@ -173,27 +314,6 @@
     <t>51,15%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>30,05%</t>
   </si>
   <si>
@@ -221,124 +341,52 @@
     <t>32,62%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>18,99%</t>
@@ -368,33 +416,6 @@
     <t>22,65%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>48,45%</t>
   </si>
   <si>
@@ -422,27 +443,6 @@
     <t>51,61%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>31,47%</t>
   </si>
   <si>
@@ -473,6 +473,162 @@
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>14,96%</t>
   </si>
   <si>
@@ -500,27 +656,6 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>42,35%</t>
   </si>
   <si>
@@ -548,27 +683,6 @@
     <t>47,25%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>39,82%</t>
   </si>
   <si>
@@ -596,118 +710,37 @@
     <t>43,62%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>14,27%</t>
@@ -737,24 +770,6 @@
     <t>16,05%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>42,58%</t>
   </si>
   <si>
@@ -782,21 +797,6 @@
     <t>47,55%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
     <t>40,44%</t>
   </si>
   <si>
@@ -827,6 +827,135 @@
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>11,54%</t>
   </si>
   <si>
@@ -854,24 +983,6 @@
     <t>15,24%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>45,66%</t>
   </si>
   <si>
@@ -896,21 +1007,6 @@
     <t>48,1%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>39,77%</t>
   </si>
   <si>
@@ -938,100 +1034,28 @@
     <t>43,37%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>12,37%</t>
@@ -1061,21 +1085,6 @@
     <t>15,14%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
     <t>44,92%</t>
   </si>
   <si>
@@ -1100,15 +1109,6 @@
     <t>47,08%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>40,35%</t>
   </si>
   <si>
@@ -1133,6 +1133,117 @@
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
@@ -1157,18 +1268,6 @@
     <t>6,64%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>32,52%</t>
   </si>
   <si>
@@ -1196,24 +1295,6 @@
     <t>36,46%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>62,09%</t>
   </si>
   <si>
@@ -1241,85 +1322,40 @@
     <t>64,95%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -1349,21 +1385,6 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>30,84%</t>
   </si>
   <si>
@@ -1386,27 +1407,6 @@
   </si>
   <si>
     <t>34,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
   </si>
   <si>
     <t>63,04%</t>
@@ -1825,7 +1825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA5BF0-0104-4B76-B0C1-1591023E5C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203EE66F-96B2-4825-82B4-FFB4572A86B3}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2215,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>57258</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2230,34 +2230,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>58499</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>679</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>172</v>
-      </c>
-      <c r="N10" s="7">
-        <v>115757</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,49 +2266,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>2423</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>642</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>642</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3366</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5789</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2317,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>134625</v>
+        <v>8218</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8889</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17106</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H12" s="7">
-        <v>183</v>
-      </c>
-      <c r="I12" s="7">
-        <v>123878</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>384</v>
-      </c>
-      <c r="N12" s="7">
-        <v>258503</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,49 +2368,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>644</v>
+        <v>32429</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30140</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="7">
+        <v>94</v>
+      </c>
+      <c r="N13" s="7">
+        <v>62569</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2728</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,49 +2419,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>83758</v>
+        <v>24740</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16371</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>61</v>
+      </c>
+      <c r="N14" s="7">
+        <v>41111</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7">
-        <v>115</v>
-      </c>
-      <c r="I14" s="7">
-        <v>76436</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>241</v>
-      </c>
-      <c r="N14" s="7">
-        <v>160195</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,102 +2470,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>418</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>278708</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264263</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>810</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>542971</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>8218</v>
+        <v>644</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2084</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2728</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8889</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17106</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,49 +2574,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3366</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5789</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>642</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>642</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,49 +2625,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D18" s="7">
-        <v>32429</v>
+        <v>57258</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>86</v>
+      </c>
+      <c r="I18" s="7">
+        <v>58499</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>172</v>
+      </c>
+      <c r="N18" s="7">
+        <v>115757</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="7">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30140</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="7">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62569</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,46 +2676,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D19" s="7">
-        <v>679</v>
+        <v>134625</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>183</v>
+      </c>
+      <c r="I19" s="7">
+        <v>123878</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>384</v>
+      </c>
+      <c r="N19" s="7">
+        <v>258503</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>679</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>90</v>
@@ -2727,10 +2727,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="D20" s="7">
-        <v>24740</v>
+        <v>83758</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>91</v>
@@ -2742,10 +2742,10 @@
         <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="I20" s="7">
-        <v>16371</v>
+        <v>76436</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>94</v>
@@ -2757,10 +2757,10 @@
         <v>96</v>
       </c>
       <c r="M20" s="7">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="N20" s="7">
-        <v>41111</v>
+        <v>160195</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>97</v>
@@ -2778,49 +2778,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>278708</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264263</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>810</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>542971</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,49 +2831,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>65476</v>
+        <v>1323</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2084</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="7">
-        <v>99</v>
-      </c>
-      <c r="I22" s="7">
-        <v>67387</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3407</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="7">
-        <v>198</v>
-      </c>
-      <c r="N22" s="7">
-        <v>132863</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2888,13 @@
         <v>2423</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2903,13 +2903,13 @@
         <v>4007</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2918,13 +2918,13 @@
         <v>6431</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,49 +2933,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7">
-        <v>167054</v>
+        <v>65476</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>99</v>
+      </c>
+      <c r="I24" s="7">
+        <v>67387</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="7">
-        <v>228</v>
-      </c>
-      <c r="I24" s="7">
-        <v>154018</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>198</v>
+      </c>
+      <c r="N24" s="7">
+        <v>132863</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="7">
-        <v>478</v>
-      </c>
-      <c r="N24" s="7">
-        <v>321072</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,46 +2984,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="D25" s="7">
-        <v>1323</v>
+        <v>167054</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>228</v>
+      </c>
+      <c r="I25" s="7">
+        <v>154018</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>478</v>
+      </c>
+      <c r="N25" s="7">
+        <v>321072</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M25" s="7">
-        <v>5</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3407</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>133</v>
@@ -3092,13 +3092,13 @@
         <v>344774</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -3107,13 +3107,13 @@
         <v>320304</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>993</v>
@@ -3122,13 +3122,13 @@
         <v>665078</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00D943F-CDD3-4E33-8DE0-E2C5E7C0A0F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B94DBF-A628-4F95-80FD-1A0752537111}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3537,49 +3537,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>39741</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35556</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="7">
-        <v>112</v>
-      </c>
-      <c r="N10" s="7">
-        <v>75297</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,49 +3588,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>4576</v>
+        <v>1351</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1961</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3311</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>798</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5374</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,49 +3639,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>112509</v>
+        <v>7626</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7170</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7">
+        <v>14795</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="7">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7">
-        <v>112681</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="7">
-        <v>324</v>
-      </c>
-      <c r="N12" s="7">
-        <v>225190</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +3690,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>3053</v>
+        <v>28783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
+        <v>47</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33947</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>86</v>
+      </c>
+      <c r="N13" s="7">
+        <v>62730</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>746</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3799</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,49 +3741,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>105787</v>
+        <v>28415</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28892</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="7">
-        <v>145</v>
-      </c>
-      <c r="I14" s="7">
-        <v>100285</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7">
+        <v>57307</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M14" s="7">
-        <v>298</v>
-      </c>
-      <c r="N14" s="7">
-        <v>206072</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,102 +3792,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>391</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265666</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>250067</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515733</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>7626</v>
+        <v>3053</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>746</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3799</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7170</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14795</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +3896,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1351</v>
+        <v>4576</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>798</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5374</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1961</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3311</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,49 +3947,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>28783</v>
+        <v>39741</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="7">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7">
+        <v>35556</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="7">
+        <v>112</v>
+      </c>
+      <c r="N18" s="7">
+        <v>75297</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="H18" s="7">
-        <v>47</v>
-      </c>
-      <c r="I18" s="7">
-        <v>33947</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M18" s="7">
-        <v>86</v>
-      </c>
-      <c r="N18" s="7">
-        <v>62730</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,46 +3998,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>112509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="7">
+        <v>158</v>
+      </c>
+      <c r="I19" s="7">
+        <v>112681</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M19" s="7">
+        <v>324</v>
+      </c>
+      <c r="N19" s="7">
+        <v>225190</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>213</v>
@@ -4049,10 +4049,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D20" s="7">
-        <v>28415</v>
+        <v>105787</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>214</v>
@@ -4064,10 +4064,10 @@
         <v>216</v>
       </c>
       <c r="H20" s="7">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>28892</v>
+        <v>100285</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>217</v>
@@ -4079,10 +4079,10 @@
         <v>219</v>
       </c>
       <c r="M20" s="7">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="N20" s="7">
-        <v>57307</v>
+        <v>206072</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>220</v>
@@ -4100,49 +4100,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265666</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>250067</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,10 +4153,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>47367</v>
+        <v>3053</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>223</v>
@@ -4165,37 +4165,37 @@
         <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>746</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3799</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="7">
-        <v>61</v>
-      </c>
-      <c r="I22" s="7">
-        <v>42726</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M22" s="7">
-        <v>133</v>
-      </c>
-      <c r="N22" s="7">
-        <v>90093</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4210,13 @@
         <v>5926</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4225,13 +4225,13 @@
         <v>2759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -4240,13 +4240,13 @@
         <v>8685</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4255,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>141292</v>
+        <v>47367</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="7">
+        <v>61</v>
+      </c>
+      <c r="I24" s="7">
+        <v>42726</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>133</v>
+      </c>
+      <c r="N24" s="7">
+        <v>90093</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H24" s="7">
-        <v>205</v>
-      </c>
-      <c r="I24" s="7">
-        <v>146628</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M24" s="7">
-        <v>410</v>
-      </c>
-      <c r="N24" s="7">
-        <v>287920</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,40 +4306,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="D25" s="7">
-        <v>3053</v>
+        <v>141292</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="7">
+        <v>205</v>
+      </c>
+      <c r="I25" s="7">
+        <v>146628</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>746</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="N25" s="7">
-        <v>3799</v>
+        <v>287920</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>249</v>
@@ -4414,13 +4414,13 @@
         <v>331840</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4429,13 +4429,13 @@
         <v>322036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>940</v>
@@ -4444,13 +4444,13 @@
         <v>653876</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768E7CE4-CDBE-4FE4-97AA-4ABCB21D4DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12606EC7-3A7C-4DB9-884D-A253E3BADFF3}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,49 +4859,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>32493</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1488</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1488</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="H10" s="7">
-        <v>54</v>
-      </c>
-      <c r="I10" s="7">
-        <v>38001</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="7">
-        <v>97</v>
-      </c>
-      <c r="N10" s="7">
-        <v>70494</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,49 +4910,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>7842</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>5547</v>
+        <v>1213</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>13389</v>
+        <v>1213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,49 +4961,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>128605</v>
+        <v>12110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>114451</v>
+        <v>9171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>243056</v>
+        <v>21281</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,49 +5012,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>690</v>
+        <v>33434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>2549</v>
+        <v>40418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="N13" s="7">
-        <v>3239</v>
+        <v>73853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,49 +5063,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>111998</v>
+        <v>33534</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
+        <v>59</v>
+      </c>
+      <c r="I14" s="7">
+        <v>39224</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>107</v>
+      </c>
+      <c r="N14" s="7">
+        <v>72758</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H14" s="7">
-        <v>149</v>
-      </c>
-      <c r="I14" s="7">
-        <v>104712</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="7">
-        <v>299</v>
-      </c>
-      <c r="N14" s="7">
-        <v>216710</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,102 +5114,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>79079</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>252</v>
       </c>
       <c r="N15" s="7">
-        <v>546888</v>
+        <v>170592</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>690</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>12110</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>9171</v>
+        <v>2549</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>21281</v>
+        <v>3239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,49 +5218,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>7842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>1213</v>
+        <v>5547</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>1213</v>
+        <v>13389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,49 +5269,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>33434</v>
+        <v>32493</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="7">
+        <v>54</v>
+      </c>
+      <c r="I18" s="7">
+        <v>38001</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>97</v>
+      </c>
+      <c r="N18" s="7">
+        <v>70494</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H18" s="7">
-        <v>61</v>
-      </c>
-      <c r="I18" s="7">
-        <v>40418</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M18" s="7">
-        <v>109</v>
-      </c>
-      <c r="N18" s="7">
-        <v>73853</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,46 +5320,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>128605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>1488</v>
+        <v>114451</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>335</v>
+      </c>
+      <c r="N19" s="7">
+        <v>243056</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1488</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>321</v>
@@ -5371,10 +5371,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D20" s="7">
-        <v>33534</v>
+        <v>111998</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>322</v>
@@ -5386,10 +5386,10 @@
         <v>324</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7">
-        <v>39224</v>
+        <v>104712</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>325</v>
@@ -5401,10 +5401,10 @@
         <v>327</v>
       </c>
       <c r="M20" s="7">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="N20" s="7">
-        <v>72758</v>
+        <v>216710</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>328</v>
@@ -5422,49 +5422,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>79079</v>
+        <v>281629</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>753</v>
       </c>
       <c r="N21" s="7">
-        <v>170592</v>
+        <v>546888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,49 +5475,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>44603</v>
+        <v>690</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4037</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4727</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H22" s="7">
-        <v>68</v>
-      </c>
-      <c r="I22" s="7">
-        <v>47171</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M22" s="7">
-        <v>129</v>
-      </c>
-      <c r="N22" s="7">
-        <v>91775</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5532,13 @@
         <v>7842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -5547,13 +5547,13 @@
         <v>6759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -5562,13 +5562,13 @@
         <v>14601</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,49 +5577,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>162040</v>
+        <v>44603</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="7">
+        <v>68</v>
+      </c>
+      <c r="I24" s="7">
+        <v>47171</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M24" s="7">
+        <v>129</v>
+      </c>
+      <c r="N24" s="7">
+        <v>91775</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="H24" s="7">
-        <v>219</v>
-      </c>
-      <c r="I24" s="7">
-        <v>154869</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M24" s="7">
-        <v>444</v>
-      </c>
-      <c r="N24" s="7">
-        <v>316909</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,49 +5628,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="D25" s="7">
-        <v>690</v>
+        <v>162040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="I25" s="7">
-        <v>4037</v>
+        <v>154869</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>444</v>
       </c>
       <c r="N25" s="7">
-        <v>4727</v>
+        <v>316909</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5736,13 @@
         <v>360708</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5751,13 +5751,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1005</v>
@@ -5766,13 +5766,13 @@
         <v>717480</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5791,7 +5791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1BFCD-9BC0-4D48-B47F-7F8684263F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A74A4C-FEAB-4942-A660-1F4B01FACCC2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6181,49 +6181,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>13486</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16959</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M10" s="7">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30445</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,49 +6232,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>914</v>
+        <v>2132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>3149</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>4063</v>
+        <v>2132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,49 +6283,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>114206</v>
+        <v>4622</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>95306</v>
+        <v>3101</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>209512</v>
+        <v>7722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,49 +6334,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>4508</v>
+        <v>14911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>2400</v>
+        <v>17019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>6908</v>
+        <v>31930</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,49 +6385,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>218023</v>
+        <v>45932</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" s="7">
+        <v>58</v>
+      </c>
+      <c r="I14" s="7">
+        <v>42333</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="7">
+        <v>113</v>
+      </c>
+      <c r="N14" s="7">
+        <v>88265</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>180300</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M14" s="7">
-        <v>501</v>
-      </c>
-      <c r="N14" s="7">
-        <v>398322</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,54 +6436,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>351138</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>298113</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>649250</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6492,46 +6492,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4622</v>
+        <v>4508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>3101</v>
+        <v>2400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>7722</v>
+        <v>6908</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,49 +6540,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2132</v>
+        <v>914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>3149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>2132</v>
+        <v>4063</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,49 +6591,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>14911</v>
+        <v>13486</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>17019</v>
+        <v>16959</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>31930</v>
+        <v>30445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,46 +6642,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>114206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>95306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>209512</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>417</v>
@@ -6693,10 +6693,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>55</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>45932</v>
+        <v>218023</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>418</v>
@@ -6708,10 +6708,10 @@
         <v>420</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7">
-        <v>42333</v>
+        <v>180300</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>421</v>
@@ -6723,10 +6723,10 @@
         <v>423</v>
       </c>
       <c r="M20" s="7">
-        <v>113</v>
+        <v>501</v>
       </c>
       <c r="N20" s="7">
-        <v>88265</v>
+        <v>398322</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>424</v>
@@ -6744,49 +6744,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>351138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>298113</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>649250</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,49 +6797,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>18108</v>
+        <v>4508</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2400</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H22" s="7">
-        <v>27</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20059</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6908</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="M22" s="7">
-        <v>48</v>
-      </c>
-      <c r="N22" s="7">
-        <v>38167</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6854,13 @@
         <v>3047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -6869,13 +6869,13 @@
         <v>3149</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6884,13 +6884,13 @@
         <v>6196</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,49 +6899,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7">
-        <v>129117</v>
+        <v>18108</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>27</v>
+      </c>
+      <c r="I24" s="7">
+        <v>20059</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="H24" s="7">
-        <v>139</v>
-      </c>
-      <c r="I24" s="7">
-        <v>112325</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>48</v>
+      </c>
+      <c r="N24" s="7">
+        <v>38167</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="M24" s="7">
-        <v>284</v>
-      </c>
-      <c r="N24" s="7">
-        <v>241442</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,46 +6950,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="D25" s="7">
-        <v>4508</v>
+        <v>129117</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>139</v>
+      </c>
+      <c r="I25" s="7">
+        <v>112325</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2400</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>284</v>
+      </c>
+      <c r="N25" s="7">
+        <v>241442</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="M25" s="7">
-        <v>10</v>
-      </c>
-      <c r="N25" s="7">
-        <v>6908</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>455</v>
@@ -7058,13 +7058,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -7073,13 +7073,13 @@
         <v>360566</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -7088,13 +7088,13 @@
         <v>779300</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{512DD48E-15B4-4A5F-B638-D9B69509F436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5582BA4C-7E05-4822-BEA4-39C939E438E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{01B64B5D-3131-4395-A764-8F66CE93AD98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38D668A7-08BC-4541-B6C6-4895DD603772}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="472">
   <si>
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -68,1372 +68,1393 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>1,78%</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1465,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1540,39 +1561,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1624,7 +1645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1735,13 +1756,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1750,6 +1764,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1814,19 +1835,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203EE66F-96B2-4825-82B4-FFB4572A86B3}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F577DD-568A-428F-8DF3-9398CC0F26EA}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2215,49 +2256,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,47 +2303,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2346,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,49 +2391,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
-      </c>
-      <c r="N13" s="7">
-        <v>62569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,49 +2436,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
-        <v>24740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
-      </c>
-      <c r="N14" s="7">
-        <v>41111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,102 +2481,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>644</v>
+        <v>41251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>2084</v>
+        <v>37149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="N16" s="7">
-        <v>2728</v>
+        <v>78400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,49 +2579,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>2423</v>
+        <v>78073</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>3366</v>
+        <v>66022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="N17" s="7">
-        <v>5789</v>
+        <v>144096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,49 +2630,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>57258</v>
+        <v>20106</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>58499</v>
+        <v>22547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>115757</v>
+        <v>42653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,49 +2681,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>134625</v>
+        <v>593</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>123878</v>
+        <v>1175</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>258503</v>
+        <v>1768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,49 +2732,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>83758</v>
+        <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>76436</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>160195</v>
+        <v>679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,102 +2783,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="D21" s="7">
-        <v>278708</v>
+        <v>140702</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7">
-        <v>264263</v>
+        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>810</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>542971</v>
+        <v>267596</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1323</v>
+        <v>67248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>2084</v>
+        <v>55658</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="N22" s="7">
-        <v>3407</v>
+        <v>122906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,49 +2887,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7">
-        <v>2423</v>
+        <v>88980</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>4007</v>
+        <v>87995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="N23" s="7">
-        <v>6431</v>
+        <v>176976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,49 +2938,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7">
-        <v>65476</v>
+        <v>45370</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>67387</v>
+        <v>44840</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="N24" s="7">
-        <v>132863</v>
+        <v>90210</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,49 +2989,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>167054</v>
+        <v>1830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>154018</v>
+        <v>2832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>478</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>321072</v>
+        <v>4662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,49 +3040,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>108499</v>
+        <v>644</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>92807</v>
+        <v>2084</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>201306</v>
+        <v>2728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,55 +3091,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>285</v>
+      </c>
+      <c r="I27" s="7">
+        <v>193410</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>397483</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>163</v>
+      </c>
+      <c r="D28" s="7">
+        <v>108499</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
+        <v>139</v>
+      </c>
+      <c r="I28" s="7">
+        <v>92807</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="7">
+        <v>302</v>
+      </c>
+      <c r="N28" s="7">
+        <v>201306</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>250</v>
+      </c>
+      <c r="D29" s="7">
+        <v>167054</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
+        <v>228</v>
+      </c>
+      <c r="I29" s="7">
+        <v>154018</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="7">
+        <v>478</v>
+      </c>
+      <c r="N29" s="7">
+        <v>321072</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>99</v>
+      </c>
+      <c r="D30" s="7">
+        <v>65476</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
+        <v>99</v>
+      </c>
+      <c r="I30" s="7">
+        <v>67387</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="7">
+        <v>198</v>
+      </c>
+      <c r="N30" s="7">
+        <v>132863</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2423</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4007</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6431</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1323</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2084</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3407</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>518</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>344774</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320304</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>993</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>665078</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3147,8 +3466,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B94DBF-A628-4F95-80FD-1A0752537111}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368C5F3-826D-4D23-9866-376A5DAD6FC4}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3164,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,47 +3858,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,49 +3901,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,49 +3946,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>14795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +3991,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>86</v>
-      </c>
-      <c r="N13" s="7">
-        <v>62730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,49 +4036,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>28415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28892</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
-      </c>
-      <c r="N14" s="7">
-        <v>57307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,102 +4081,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>3053</v>
+        <v>61427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>746</v>
+        <v>68209</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="N16" s="7">
-        <v>3799</v>
+        <v>129636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,49 +4179,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>4576</v>
+        <v>67181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>798</v>
+        <v>70450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" s="7">
         <v>193</v>
       </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
       <c r="N17" s="7">
-        <v>5374</v>
+        <v>137632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,49 +4230,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>39741</v>
+        <v>22930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>35556</v>
+        <v>14895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>75297</v>
+        <v>37825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,49 +4281,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>112509</v>
+        <v>3957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>112681</v>
+        <v>1961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
-        <v>324</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>225190</v>
+        <v>5918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,49 +4332,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>105787</v>
+        <v>1179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>100285</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>206072</v>
+        <v>1179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,102 +4383,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>391</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265666</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>250067</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>747</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>515733</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>3053</v>
+        <v>72776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I22" s="7">
-        <v>746</v>
+        <v>60968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="N22" s="7">
-        <v>3799</v>
+        <v>133743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,49 +4487,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>5926</v>
+        <v>74110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="I23" s="7">
-        <v>2759</v>
+        <v>76178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="N23" s="7">
-        <v>8685</v>
+        <v>150288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4538,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7">
-        <v>47367</v>
+        <v>24437</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="H24" s="7">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I24" s="7">
-        <v>42726</v>
+        <v>27831</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="M24" s="7">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="N24" s="7">
-        <v>90093</v>
+        <v>52267</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4589,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>141292</v>
+        <v>1969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>146628</v>
+        <v>798</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="M25" s="7">
-        <v>410</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>287920</v>
+        <v>2767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,49 +4640,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>134202</v>
+        <v>1874</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="H26" s="7">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>129177</v>
+        <v>746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>263379</v>
+        <v>2621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,55 +4691,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>258</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175166</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>236</v>
+      </c>
+      <c r="I27" s="7">
+        <v>166521</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341687</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>193</v>
+      </c>
+      <c r="D28" s="7">
+        <v>134202</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="7">
+        <v>186</v>
+      </c>
+      <c r="I28" s="7">
+        <v>129177</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" s="7">
+        <v>379</v>
+      </c>
+      <c r="N28" s="7">
+        <v>263379</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>205</v>
+      </c>
+      <c r="D29" s="7">
+        <v>141292</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="7">
+        <v>205</v>
+      </c>
+      <c r="I29" s="7">
+        <v>146628</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="7">
+        <v>410</v>
+      </c>
+      <c r="N29" s="7">
+        <v>287920</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7">
+        <v>47367</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="7">
+        <v>61</v>
+      </c>
+      <c r="I30" s="7">
+        <v>42726</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="7">
+        <v>133</v>
+      </c>
+      <c r="N30" s="7">
+        <v>90093</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5926</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2759</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8685</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3053</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>746</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3799</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>483</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331840</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>322036</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>940</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653876</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4469,8 +5066,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12606EC7-3A7C-4DB9-884D-A253E3BADFF3}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D990094-F13B-490C-B1C1-5B0B249DA896}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4486,7 +5083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4861,47 +5458,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,47 +5503,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,49 +5546,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,49 +5591,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7">
-        <v>33434</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
-      </c>
-      <c r="I13" s="7">
-        <v>40418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
-      </c>
-      <c r="N13" s="7">
-        <v>73853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,49 +5636,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>33534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39224</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>107</v>
-      </c>
-      <c r="N14" s="7">
-        <v>72758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,102 +5681,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>252</v>
-      </c>
-      <c r="N15" s="7">
-        <v>170592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7">
-        <v>690</v>
+        <v>72953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>2549</v>
+        <v>79421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="N16" s="7">
-        <v>3239</v>
+        <v>152374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,49 +5779,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>7842</v>
+        <v>84041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>5547</v>
+        <v>82370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="N17" s="7">
-        <v>13389</v>
+        <v>166410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,49 +5830,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>32493</v>
+        <v>24859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I18" s="7">
-        <v>38001</v>
+        <v>18475</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>70494</v>
+        <v>43333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,49 +5881,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>128605</v>
+        <v>4118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>114451</v>
+        <v>3612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
-        <v>335</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>243056</v>
+        <v>7730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,49 +5932,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>111998</v>
+        <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>104712</v>
+        <v>2105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
-        <v>299</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>216710</v>
+        <v>2795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,102 +5983,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="D21" s="7">
-        <v>281629</v>
+        <v>186661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>753</v>
+        <v>527</v>
       </c>
       <c r="N21" s="7">
-        <v>546888</v>
+        <v>372643</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7">
-        <v>690</v>
+        <v>72580</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="I22" s="7">
-        <v>4037</v>
+        <v>64514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="N22" s="7">
-        <v>4727</v>
+        <v>137094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,49 +6087,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7">
-        <v>7842</v>
+        <v>77999</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7">
-        <v>6759</v>
+        <v>72499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="N23" s="7">
-        <v>14601</v>
+        <v>150499</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,49 +6138,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>44603</v>
+        <v>19745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7">
-        <v>47171</v>
+        <v>28697</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M24" s="7">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="N24" s="7">
-        <v>91775</v>
+        <v>48441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,49 +6189,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>162040</v>
+        <v>3724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>154869</v>
+        <v>3147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>444</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>316909</v>
+        <v>6871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,49 +6240,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>145533</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="H26" s="7">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>143935</v>
+        <v>1932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>289468</v>
+        <v>1932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,55 +6291,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>198</v>
+      </c>
+      <c r="D28" s="7">
+        <v>145533</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
+        <v>208</v>
+      </c>
+      <c r="I28" s="7">
+        <v>143935</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="7">
+        <v>406</v>
+      </c>
+      <c r="N28" s="7">
+        <v>289468</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>225</v>
+      </c>
+      <c r="D29" s="7">
+        <v>162040</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H29" s="7">
+        <v>219</v>
+      </c>
+      <c r="I29" s="7">
+        <v>154869</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M29" s="7">
+        <v>444</v>
+      </c>
+      <c r="N29" s="7">
+        <v>316909</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>44603</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H30" s="7">
+        <v>68</v>
+      </c>
+      <c r="I30" s="7">
+        <v>47171</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="7">
+        <v>129</v>
+      </c>
+      <c r="N30" s="7">
+        <v>91775</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7842</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6759</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="7">
+        <v>19</v>
+      </c>
+      <c r="N31" s="7">
+        <v>14601</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>690</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>4037</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4727</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>495</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>360708</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>510</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356772</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>1005</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>717480</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5791,8 +6666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A74A4C-FEAB-4942-A660-1F4B01FACCC2}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C3D356-5201-4732-817D-098C687ED534}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5808,7 +6683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6183,47 +7058,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,49 +7101,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,49 +7146,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7722</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,49 +7191,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>14911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
-      </c>
-      <c r="N13" s="7">
-        <v>31930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,49 +7236,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7">
-        <v>45932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>42333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>113</v>
-      </c>
-      <c r="N14" s="7">
-        <v>88265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,102 +7281,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>4508</v>
+        <v>106728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
-        <v>2400</v>
+        <v>81764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="N16" s="7">
-        <v>6908</v>
+        <v>188491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,49 +7379,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>914</v>
+        <v>44044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>3149</v>
+        <v>39162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>4063</v>
+        <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,49 +7430,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>13486</v>
+        <v>6825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>16959</v>
+        <v>12057</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>30445</v>
+        <v>18882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,49 +7481,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>114206</v>
+        <v>3047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>95306</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>209512</v>
+        <v>3047</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,49 +7532,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>218023</v>
+        <v>2995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>180300</v>
+        <v>823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>398322</v>
+        <v>3818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,102 +7583,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>351138</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>298113</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>802</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>649250</v>
+        <v>297444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="D22" s="7">
-        <v>4508</v>
+        <v>157227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="I22" s="7">
-        <v>2400</v>
+        <v>140869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="N22" s="7">
-        <v>6908</v>
+        <v>298096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,49 +7687,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>3047</v>
+        <v>85073</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>3149</v>
+        <v>73163</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>184</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="N23" s="7">
-        <v>6196</v>
+        <v>158236</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,49 +7738,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>18108</v>
+        <v>11283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>440</v>
+        <v>183</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>20059</v>
+        <v>8003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>38167</v>
+        <v>19285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,49 +7789,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>129117</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>112325</v>
+        <v>3149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>241442</v>
+        <v>3149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,49 +7840,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>263954</v>
+        <v>1513</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>222633</v>
+        <v>1577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>131</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="M26" s="7">
-        <v>614</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>486587</v>
+        <v>3090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>464</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,55 +7891,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>294</v>
+      </c>
+      <c r="D27" s="7">
+        <v>255096</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>226760</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>481856</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>314</v>
+      </c>
+      <c r="D28" s="7">
+        <v>263954</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H28" s="7">
+        <v>300</v>
+      </c>
+      <c r="I28" s="7">
+        <v>222633</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M28" s="7">
+        <v>614</v>
+      </c>
+      <c r="N28" s="7">
+        <v>486587</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>145</v>
+      </c>
+      <c r="D29" s="7">
+        <v>129117</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H29" s="7">
+        <v>139</v>
+      </c>
+      <c r="I29" s="7">
+        <v>112325</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M29" s="7">
+        <v>284</v>
+      </c>
+      <c r="N29" s="7">
+        <v>241442</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18108</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27</v>
+      </c>
+      <c r="I30" s="7">
+        <v>20059</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30" s="7">
+        <v>48</v>
+      </c>
+      <c r="N30" s="7">
+        <v>38167</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3047</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3149</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6196</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4508</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>6908</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>489</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418734</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>360566</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>964</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>779300</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5582BA4C-7E05-4822-BEA4-39C939E438E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7600659-5274-4BFC-8455-FF8182191EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38D668A7-08BC-4541-B6C6-4895DD603772}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44520CFB-26DF-4D35-A4A3-0A154E7DC96C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="462">
   <si>
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -98,82 +98,82 @@
     <t>29,32%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -182,13 +182,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -197,13 +197,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>0%</t>
@@ -215,7 +215,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,28 +227,28 @@
     <t>32,95%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>43,6%</t>
@@ -257,52 +257,52 @@
     <t>38,29%</t>
   </si>
   <si>
-    <t>48,89%</t>
+    <t>49,28%</t>
   </si>
   <si>
     <t>45,5%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
   </si>
   <si>
     <t>44,52%</t>
   </si>
   <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>23,18%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -311,22 +311,22 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -341,1120 +341,1090 @@
     <t>0,33%</t>
   </si>
   <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>43,58%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F577DD-568A-428F-8DF3-9398CC0F26EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0D3663-81ED-4302-9B8D-D12F0C2179DD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3079,10 +3049,10 @@
         <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3120,13 @@
         <v>108499</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>139</v>
@@ -3165,13 +3135,13 @@
         <v>92807</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>302</v>
@@ -3180,13 +3150,13 @@
         <v>201306</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3171,13 @@
         <v>167054</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -3216,13 +3186,13 @@
         <v>154018</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>478</v>
@@ -3231,13 +3201,13 @@
         <v>321072</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3222,13 @@
         <v>65476</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -3267,13 +3237,13 @@
         <v>67387</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -3282,13 +3252,13 @@
         <v>132863</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3273,13 @@
         <v>2423</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3318,10 +3288,10 @@
         <v>4007</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>134</v>
@@ -3339,7 +3309,7 @@
         <v>136</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3324,13 @@
         <v>1323</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3369,13 +3339,13 @@
         <v>2084</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -3384,13 +3354,13 @@
         <v>3407</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3402,7 @@
         <v>993</v>
       </c>
       <c r="N33" s="7">
-        <v>665078</v>
+        <v>665079</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -3446,7 +3416,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3368C5F3-826D-4D23-9866-376A5DAD6FC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFBE7DA-038F-4DE3-9728-55E3067D0E99}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4134,13 +4104,13 @@
         <v>61427</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -4149,13 +4119,13 @@
         <v>68209</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4164,13 +4134,13 @@
         <v>129636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4155,13 @@
         <v>67181</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -4200,13 +4170,13 @@
         <v>70450</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -4215,13 +4185,13 @@
         <v>137632</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4206,13 @@
         <v>22930</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4251,13 +4221,13 @@
         <v>14895</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -4266,13 +4236,13 @@
         <v>37825</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4257,13 @@
         <v>3957</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4302,13 +4272,13 @@
         <v>1961</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4317,13 +4287,13 @@
         <v>5918</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4308,13 @@
         <v>1179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4359,7 +4329,7 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4368,13 +4338,13 @@
         <v>1179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4412,13 @@
         <v>72776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -4457,13 +4427,13 @@
         <v>60968</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4472,13 +4442,13 @@
         <v>133743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4463,13 @@
         <v>74110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7">
         <v>107</v>
@@ -4544,13 +4514,13 @@
         <v>24437</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H24" s="7">
         <v>40</v>
@@ -4559,13 +4529,13 @@
         <v>27831</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -4574,13 +4544,13 @@
         <v>52267</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4565,13 @@
         <v>1969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4616,7 +4586,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4625,13 +4595,13 @@
         <v>2767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4616,13 @@
         <v>1874</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4661,13 +4631,13 @@
         <v>746</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4676,13 +4646,13 @@
         <v>2621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4720,13 @@
         <v>134202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H28" s="7">
         <v>186</v>
@@ -4765,13 +4735,13 @@
         <v>129177</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M28" s="7">
         <v>379</v>
@@ -4780,13 +4750,13 @@
         <v>263379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4771,13 @@
         <v>141292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -4816,13 +4786,13 @@
         <v>146628</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -4831,13 +4801,13 @@
         <v>287920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4822,13 @@
         <v>47367</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -4867,13 +4837,13 @@
         <v>42726</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -4882,13 +4852,13 @@
         <v>90093</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4873,13 @@
         <v>5926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4918,13 +4888,13 @@
         <v>2759</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4933,13 +4903,13 @@
         <v>8685</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4924,13 @@
         <v>3053</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4969,13 +4939,13 @@
         <v>746</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4984,13 +4954,13 @@
         <v>3799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5016,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +5036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D990094-F13B-490C-B1C1-5B0B249DA896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C5BAA1-C992-4065-8777-B7B0A91B3919}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5083,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5734,13 +5704,13 @@
         <v>72953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -5749,13 +5719,13 @@
         <v>79421</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>216</v>
@@ -5764,13 +5734,13 @@
         <v>152374</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5755,13 @@
         <v>84041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>117</v>
@@ -5800,13 +5770,13 @@
         <v>82370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>235</v>
@@ -5815,13 +5785,13 @@
         <v>166410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5806,13 @@
         <v>24859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -5851,13 +5821,13 @@
         <v>18475</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -5866,13 +5836,13 @@
         <v>43333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5857,13 @@
         <v>4118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5902,13 +5872,13 @@
         <v>3612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5917,13 +5887,13 @@
         <v>7730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5908,13 @@
         <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5953,13 +5923,13 @@
         <v>2105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5968,13 +5938,13 @@
         <v>2795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6012,13 @@
         <v>72580</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -6057,13 +6027,13 @@
         <v>64514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -6072,13 +6042,13 @@
         <v>137094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6063,13 @@
         <v>77999</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -6108,13 +6078,13 @@
         <v>72499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -6123,13 +6093,13 @@
         <v>150499</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>313</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6114,13 @@
         <v>19745</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -6159,13 +6129,13 @@
         <v>28697</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6174,13 +6144,13 @@
         <v>48441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6165,13 @@
         <v>3724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6210,13 +6180,13 @@
         <v>3147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6225,13 +6195,13 @@
         <v>6871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,7 +6222,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6261,13 +6231,13 @@
         <v>1932</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6276,13 +6246,13 @@
         <v>1932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6320,13 @@
         <v>145533</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>208</v>
@@ -6365,13 +6335,13 @@
         <v>143935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6380,13 +6350,13 @@
         <v>289468</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6371,13 @@
         <v>162040</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H29" s="7">
         <v>219</v>
@@ -6416,13 +6386,13 @@
         <v>154869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M29" s="7">
         <v>444</v>
@@ -6431,13 +6401,13 @@
         <v>316909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6422,13 @@
         <v>44603</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -6467,13 +6437,13 @@
         <v>47171</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -6482,13 +6452,13 @@
         <v>91775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6473,13 @@
         <v>7842</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -6518,13 +6488,13 @@
         <v>6759</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -6533,13 +6503,13 @@
         <v>14601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6524,13 @@
         <v>690</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -6569,13 +6539,13 @@
         <v>4037</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6587,10 +6557,10 @@
         <v>50</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,7 +6616,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C3D356-5201-4732-817D-098C687ED534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E4B082-1FB3-4B6E-A6DB-53B12C16496E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6683,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7334,13 +7304,13 @@
         <v>106728</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -7349,13 +7319,13 @@
         <v>81764</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -7364,13 +7334,13 @@
         <v>188491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7355,13 @@
         <v>44044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -7400,13 +7370,13 @@
         <v>39162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7415,13 +7385,13 @@
         <v>83206</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7406,13 @@
         <v>6825</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -7451,13 +7421,13 @@
         <v>12057</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -7466,13 +7436,13 @@
         <v>18882</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7457,13 @@
         <v>3047</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7517,13 +7487,13 @@
         <v>3047</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7508,13 @@
         <v>2995</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7553,13 +7523,13 @@
         <v>823</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -7568,13 +7538,13 @@
         <v>3818</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7612,13 @@
         <v>157227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -7657,13 +7627,13 @@
         <v>140869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>373</v>
@@ -7672,13 +7642,13 @@
         <v>298096</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7663,13 @@
         <v>85073</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -7708,13 +7678,13 @@
         <v>73163</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>186</v>
@@ -7723,13 +7693,13 @@
         <v>158236</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7714,13 @@
         <v>11283</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>183</v>
+        <v>413</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -7759,13 +7729,13 @@
         <v>8003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -7774,13 +7744,13 @@
         <v>19285</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,7 +7771,7 @@
         <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -7810,13 +7780,13 @@
         <v>3149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7825,13 +7795,13 @@
         <v>3149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7816,13 @@
         <v>1513</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7861,13 +7831,13 @@
         <v>1577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7876,13 +7846,13 @@
         <v>3090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7920,13 @@
         <v>263954</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H28" s="7">
         <v>300</v>
@@ -7965,13 +7935,13 @@
         <v>222633</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>614</v>
@@ -7980,13 +7950,13 @@
         <v>486587</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7971,13 @@
         <v>129117</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>139</v>
@@ -8016,13 +7986,13 @@
         <v>112325</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>284</v>
@@ -8031,13 +8001,13 @@
         <v>241442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +8022,13 @@
         <v>18108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -8067,13 +8037,13 @@
         <v>20059</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -8082,13 +8052,13 @@
         <v>38167</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8073,13 @@
         <v>3047</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>452</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8118,13 +8088,13 @@
         <v>3149</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>463</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>99</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
@@ -8133,13 +8103,13 @@
         <v>6196</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,10 +8127,10 @@
         <v>98</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>456</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -8169,13 +8139,13 @@
         <v>2400</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>468</v>
+        <v>253</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>97</v>
+        <v>459</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -8184,13 +8154,13 @@
         <v>6908</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>470</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,7 +8216,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7600659-5274-4BFC-8455-FF8182191EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D459893-EF1C-4BD2-942F-116E282BCC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44520CFB-26DF-4D35-A4A3-0A154E7DC96C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D9ABE7-B3A0-42DA-A6E9-FBEDE4BC01ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="479">
   <si>
     <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1336 +95,1387 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido disfrutar de su tiempo libre en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0D3663-81ED-4302-9B8D-D12F0C2179DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80C2D7-3629-42D9-8ACF-CDACC8847C2C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2498,10 +2549,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>41251</v>
+        <v>37149</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2513,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I16" s="7">
-        <v>37149</v>
+        <v>41251</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2549,10 +2600,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7">
-        <v>78073</v>
+        <v>66022</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2564,10 +2615,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7">
-        <v>66022</v>
+        <v>78073</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2600,10 +2651,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>20106</v>
+        <v>22547</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2615,10 +2666,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>22547</v>
+        <v>20106</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2651,10 +2702,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>593</v>
+        <v>1175</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2666,10 +2717,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1175</v>
+        <v>593</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2702,31 +2753,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>56</v>
@@ -2753,25 +2804,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>211</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140702</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>126894</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -2806,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>67248</v>
+        <v>55658</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>61</v>
@@ -2821,10 +2872,10 @@
         <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>55658</v>
+        <v>67248</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2857,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D23" s="7">
-        <v>88980</v>
+        <v>87995</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>70</v>
@@ -2872,10 +2923,10 @@
         <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I23" s="7">
-        <v>87995</v>
+        <v>88980</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>73</v>
@@ -2908,10 +2959,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>45370</v>
+        <v>44840</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>79</v>
@@ -2923,10 +2974,10 @@
         <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I24" s="7">
-        <v>44840</v>
+        <v>45370</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>82</v>
@@ -2959,10 +3010,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>1830</v>
+        <v>2832</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>88</v>
@@ -2974,10 +3025,10 @@
         <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2832</v>
+        <v>1830</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>91</v>
@@ -2998,10 +3049,10 @@
         <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,34 +3061,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2084</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>644</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -3046,13 +3097,13 @@
         <v>2728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>285</v>
+      </c>
+      <c r="D27" s="7">
+        <v>193410</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>193410</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -3114,34 +3165,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>139</v>
+      </c>
+      <c r="D28" s="7">
+        <v>92807</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
         <v>163</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>108499</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="7">
-        <v>139</v>
-      </c>
-      <c r="I28" s="7">
-        <v>92807</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>302</v>
@@ -3150,13 +3201,13 @@
         <v>201306</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,34 +3216,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>228</v>
+      </c>
+      <c r="D29" s="7">
+        <v>154018</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="7">
         <v>250</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>167054</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="7">
-        <v>228</v>
-      </c>
-      <c r="I29" s="7">
-        <v>154018</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>478</v>
@@ -3201,13 +3252,13 @@
         <v>321072</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,31 +3270,31 @@
         <v>99</v>
       </c>
       <c r="D30" s="7">
-        <v>65476</v>
+        <v>67387</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
       </c>
       <c r="I30" s="7">
-        <v>67387</v>
+        <v>65476</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -3252,13 +3303,13 @@
         <v>132863</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,34 +3318,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4007</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>2423</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4007</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3303,13 +3354,13 @@
         <v>6431</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,34 +3369,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2084</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1323</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -3354,13 +3405,13 @@
         <v>3407</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,25 +3420,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320304</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>518</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>344774</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320304</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -3416,7 +3467,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFBE7DA-038F-4DE3-9728-55E3067D0E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE5BC3C-1F4A-4CC6-A966-2AEA7C8935FC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3453,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4098,34 +4149,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>99</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68209</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="7">
         <v>88</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>61427</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>99</v>
-      </c>
-      <c r="I16" s="7">
-        <v>68209</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4134,13 +4185,13 @@
         <v>129636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,34 +4200,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>98</v>
+      </c>
+      <c r="D17" s="7">
+        <v>70450</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="7">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>67181</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="7">
-        <v>98</v>
-      </c>
-      <c r="I17" s="7">
-        <v>70450</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>193</v>
@@ -4185,13 +4236,13 @@
         <v>137632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,34 +4251,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14895</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="7">
         <v>35</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>22930</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14895</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -4236,13 +4287,13 @@
         <v>37825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,34 +4302,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1961</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3957</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1961</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4287,13 +4338,13 @@
         <v>5918</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,34 +4353,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1179</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4338,13 +4389,13 @@
         <v>1179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,25 +4404,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -4406,34 +4457,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7">
+        <v>60968</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="7">
         <v>105</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>72776</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="7">
-        <v>87</v>
-      </c>
-      <c r="I22" s="7">
-        <v>60968</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>192</v>
@@ -4442,13 +4493,13 @@
         <v>133743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,34 +4508,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>107</v>
+      </c>
+      <c r="D23" s="7">
+        <v>76178</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="7">
         <v>110</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>74110</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="7">
-        <v>107</v>
-      </c>
-      <c r="I23" s="7">
-        <v>76178</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>217</v>
@@ -4493,13 +4544,13 @@
         <v>150288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,34 +4559,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27831</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="7">
         <v>37</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>24437</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="7">
-        <v>40</v>
-      </c>
-      <c r="I24" s="7">
-        <v>27831</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -4544,13 +4595,13 @@
         <v>52267</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,34 +4610,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>798</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1969</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>798</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4595,13 +4646,13 @@
         <v>2767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,34 +4661,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>746</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1874</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>746</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4646,13 +4697,13 @@
         <v>2621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,25 +4712,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>236</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166521</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>258</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175166</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>236</v>
-      </c>
-      <c r="I27" s="7">
-        <v>166521</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -4714,34 +4765,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>186</v>
+      </c>
+      <c r="D28" s="7">
+        <v>129177</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="7">
         <v>193</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>134202</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="7">
-        <v>186</v>
-      </c>
-      <c r="I28" s="7">
-        <v>129177</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>379</v>
@@ -4750,13 +4801,13 @@
         <v>263379</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,31 +4819,31 @@
         <v>205</v>
       </c>
       <c r="D29" s="7">
-        <v>141292</v>
+        <v>146628</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
       </c>
       <c r="I29" s="7">
-        <v>146628</v>
+        <v>141292</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>410</v>
@@ -4801,13 +4852,13 @@
         <v>287920</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,34 +4867,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42726</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="7">
         <v>72</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>47367</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H30" s="7">
-        <v>61</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42726</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -4852,13 +4903,13 @@
         <v>90093</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,34 +4918,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5926</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2759</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4903,13 +4954,13 @@
         <v>8685</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,34 +4969,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>746</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3053</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>746</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4954,13 +5005,13 @@
         <v>3799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,25 +5020,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>457</v>
+      </c>
+      <c r="D33" s="7">
+        <v>322036</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>483</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331840</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>457</v>
-      </c>
-      <c r="I33" s="7">
-        <v>322036</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -5016,7 +5067,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5036,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C5BAA1-C992-4065-8777-B7B0A91B3919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF22DE4-ED1C-4E21-9E35-19D5189D205D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5053,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5698,34 +5749,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7">
+        <v>79421</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="7">
         <v>101</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>72953</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="7">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7">
-        <v>79421</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>216</v>
@@ -5734,13 +5785,13 @@
         <v>152374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,34 +5800,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>117</v>
+      </c>
+      <c r="D17" s="7">
+        <v>82370</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="7">
         <v>118</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>84041</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="7">
-        <v>117</v>
-      </c>
-      <c r="I17" s="7">
-        <v>82370</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>235</v>
@@ -5785,13 +5836,13 @@
         <v>166410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,34 +5851,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>18475</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="7">
         <v>35</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>24859</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="7">
-        <v>27</v>
-      </c>
-      <c r="I18" s="7">
-        <v>18475</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -5836,13 +5887,13 @@
         <v>43333</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,31 +5905,31 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4118</v>
+        <v>3612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>3612</v>
+        <v>4118</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5887,13 +5938,13 @@
         <v>7730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,34 +5953,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>690</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2105</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5938,13 +5989,13 @@
         <v>2795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,25 +6004,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>260</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>186661</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -6006,34 +6057,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>93</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64514</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="7">
         <v>97</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>72580</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="7">
-        <v>93</v>
-      </c>
-      <c r="I22" s="7">
-        <v>64514</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -6042,13 +6093,13 @@
         <v>137094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,34 +6108,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7">
+        <v>72499</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="7">
         <v>107</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>77999</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H23" s="7">
-        <v>102</v>
-      </c>
-      <c r="I23" s="7">
-        <v>72499</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -6093,13 +6144,13 @@
         <v>150499</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,34 +6159,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>28697</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="7">
         <v>26</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>19745</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="7">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7">
-        <v>28697</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6144,13 +6195,13 @@
         <v>48441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,34 +6210,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3147</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3724</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3147</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -6195,13 +6246,13 @@
         <v>6871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,34 +6261,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1932</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1932</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6246,13 +6297,13 @@
         <v>1932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,25 +6312,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -6314,34 +6365,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>208</v>
+      </c>
+      <c r="D28" s="7">
+        <v>143935</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28" s="7">
         <v>198</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>145533</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" s="7">
-        <v>208</v>
-      </c>
-      <c r="I28" s="7">
-        <v>143935</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -6350,13 +6401,13 @@
         <v>289468</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,34 +6416,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>219</v>
+      </c>
+      <c r="D29" s="7">
+        <v>154869</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H29" s="7">
         <v>225</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>162040</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="7">
-        <v>219</v>
-      </c>
-      <c r="I29" s="7">
-        <v>154869</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>444</v>
@@ -6401,13 +6452,13 @@
         <v>316909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,34 +6467,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>68</v>
+      </c>
+      <c r="D30" s="7">
+        <v>47171</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H30" s="7">
         <v>61</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>44603</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="7">
-        <v>68</v>
-      </c>
-      <c r="I30" s="7">
-        <v>47171</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M30" s="7">
         <v>129</v>
@@ -6452,13 +6503,13 @@
         <v>91775</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,34 +6518,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>7842</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H31" s="7">
-        <v>9</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6759</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -6503,13 +6554,13 @@
         <v>14601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,34 +6569,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4037</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>690</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7">
-        <v>4037</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6557,10 +6608,10 @@
         <v>50</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,25 +6620,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>510</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>495</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>360708</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>510</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356772</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -6616,7 +6667,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E4B082-1FB3-4B6E-A6DB-53B12C16496E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1F7132-89ED-4DD4-8A19-9497555B7205}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6653,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7298,49 +7349,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>113</v>
+      </c>
+      <c r="D16" s="7">
+        <v>79170</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H16" s="7">
         <v>128</v>
       </c>
-      <c r="D16" s="7">
-        <v>106728</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>113</v>
-      </c>
       <c r="I16" s="7">
-        <v>81764</v>
+        <v>111539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
       </c>
       <c r="N16" s="7">
-        <v>188491</v>
+        <v>190709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,49 +7400,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7">
+        <v>39778</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="7">
         <v>51</v>
       </c>
-      <c r="D17" s="7">
-        <v>44044</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="7">
-        <v>47</v>
-      </c>
       <c r="I17" s="7">
-        <v>39162</v>
+        <v>46732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>83206</v>
+        <v>86509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,49 +7451,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11531</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
-        <v>6825</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
       <c r="I18" s="7">
-        <v>12057</v>
+        <v>7075</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>18882</v>
+        <v>18607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,49 +7502,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>3047</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>3047</v>
+        <v>3145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,49 +7553,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>808</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
-        <v>2995</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
       <c r="I20" s="7">
-        <v>823</v>
+        <v>2836</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>3818</v>
+        <v>3644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,25 +7604,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -7586,7 +7637,7 @@
         <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>297444</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -7606,49 +7657,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>187</v>
+      </c>
+      <c r="D22" s="7">
+        <v>136319</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="7">
         <v>186</v>
       </c>
-      <c r="D22" s="7">
-        <v>157227</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H22" s="7">
-        <v>187</v>
-      </c>
       <c r="I22" s="7">
-        <v>140869</v>
+        <v>164985</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>373</v>
       </c>
       <c r="N22" s="7">
-        <v>298096</v>
+        <v>301304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,49 +7708,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>92</v>
+      </c>
+      <c r="D23" s="7">
+        <v>89526</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H23" s="7">
         <v>94</v>
       </c>
-      <c r="D23" s="7">
-        <v>85073</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H23" s="7">
-        <v>92</v>
-      </c>
       <c r="I23" s="7">
-        <v>73163</v>
+        <v>87532</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>186</v>
       </c>
       <c r="N23" s="7">
-        <v>158236</v>
+        <v>177057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,49 +7759,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7567</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="7">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
-        <v>11283</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
       <c r="I24" s="7">
-        <v>8003</v>
+        <v>14332</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
       </c>
       <c r="N24" s="7">
-        <v>19285</v>
+        <v>21899</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,49 +7810,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>3095</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3149</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>53</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>3149</v>
+        <v>3095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,49 +7861,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1544</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>1513</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>1549</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1577</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>49</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,25 +7912,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>298</v>
+      </c>
+      <c r="D27" s="7">
+        <v>238051</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
         <v>294</v>
       </c>
-      <c r="D27" s="7">
-        <v>255096</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>298</v>
-      </c>
       <c r="I27" s="7">
-        <v>226760</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7894,7 +7945,7 @@
         <v>592</v>
       </c>
       <c r="N27" s="7">
-        <v>481856</v>
+        <v>506449</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -7914,49 +7965,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>300</v>
+      </c>
+      <c r="D28" s="7">
+        <v>215489</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="7">
         <v>314</v>
       </c>
-      <c r="D28" s="7">
-        <v>263954</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H28" s="7">
-        <v>300</v>
-      </c>
       <c r="I28" s="7">
-        <v>222633</v>
+        <v>276524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>614</v>
       </c>
       <c r="N28" s="7">
-        <v>486587</v>
+        <v>492013</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,49 +8016,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>139</v>
+      </c>
+      <c r="D29" s="7">
+        <v>129304</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H29" s="7">
         <v>145</v>
       </c>
-      <c r="D29" s="7">
-        <v>129117</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H29" s="7">
-        <v>139</v>
-      </c>
       <c r="I29" s="7">
-        <v>112325</v>
+        <v>134263</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>284</v>
       </c>
       <c r="N29" s="7">
-        <v>241442</v>
+        <v>263567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,49 +8067,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19099</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H30" s="7">
         <v>21</v>
       </c>
-      <c r="D30" s="7">
-        <v>18108</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="7">
-        <v>27</v>
-      </c>
       <c r="I30" s="7">
-        <v>20059</v>
+        <v>21407</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
       </c>
       <c r="N30" s="7">
-        <v>38167</v>
+        <v>40506</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,49 +8118,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3095</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="D31" s="7">
-        <v>3047</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
       <c r="I31" s="7">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>473</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>454</v>
+        <v>103</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>6196</v>
+        <v>6239</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>97</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,49 +8169,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2352</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="7">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
-        <v>4508</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
       <c r="I32" s="7">
-        <v>2400</v>
+        <v>4385</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>458</v>
+        <v>54</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>253</v>
+        <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>459</v>
+        <v>49</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
       </c>
       <c r="N32" s="7">
-        <v>6908</v>
+        <v>6737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,25 +8220,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>369338</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>489</v>
       </c>
-      <c r="D33" s="7">
-        <v>418734</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
       <c r="I33" s="7">
-        <v>360566</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -8202,7 +8253,7 @@
         <v>964</v>
       </c>
       <c r="N33" s="7">
-        <v>779300</v>
+        <v>809062</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -8216,7 +8267,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
